--- a/annales/Thème_annales.xlsx
+++ b/annales/Thème_annales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26316"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\DCG8\DCG8 Annales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fxp33\PortableApps\UwAmp\www\dcg-ue8\annales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0F4420-3A1B-4299-AB41-6DB98B3B3CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ADF14D-9458-4F49-8E66-AC670F1ABAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37860" yWindow="2370" windowWidth="21600" windowHeight="11775" xr2:uid="{EEF69C9F-DE26-4B09-9A90-EF330701FCCA}"/>
+    <workbookView xWindow="-13752" yWindow="-4260" windowWidth="10428" windowHeight="17376" xr2:uid="{EEF69C9F-DE26-4B09-9A90-EF330701FCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
   <si>
     <t>Schéma evt-Rés</t>
   </si>
@@ -233,6 +233,21 @@
   </si>
   <si>
     <t>Thème</t>
+  </si>
+  <si>
+    <t>Grand port Meriadeck</t>
+  </si>
+  <si>
+    <t>Formes normales</t>
+  </si>
+  <si>
+    <t>Schéma relationnel</t>
+  </si>
+  <si>
+    <t>Qualité information</t>
+  </si>
+  <si>
+    <t>Dimension organisationnelle</t>
   </si>
 </sst>
 </file>
@@ -584,10 +599,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1FF34-B865-43C9-BE68-EDA0BEB110CA}">
-  <dimension ref="A1:B95"/>
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -602,39 +618,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -642,95 +658,47 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2018</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2018</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2018</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2017</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2017</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -738,617 +706,721 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B36" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B43" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B46" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B49" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B55" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B57" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B66" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B69" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B71" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B74" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B75" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B83" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B84" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B85" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B86" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B88" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B89" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B90" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B91" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B92" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B93" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B94" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
+        <v>2009</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2009</v>
+      </c>
+      <c r="B96" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2009</v>
+      </c>
+      <c r="B97" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>2008</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B98" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>2008</v>
+      </c>
+      <c r="B99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>2008</v>
+      </c>
+      <c r="B100" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>2008</v>
+      </c>
+      <c r="B101" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>2008</v>
+      </c>
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>2008</v>
+      </c>
+      <c r="B103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>2008</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>2008</v>
+      </c>
+      <c r="B105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>2008</v>
+      </c>
+      <c r="B106" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>2008</v>
+      </c>
+      <c r="B107" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>2008</v>
+      </c>
+      <c r="B108" t="s">
         <v>62</v>
       </c>
     </row>

--- a/annales/Thème_annales.xlsx
+++ b/annales/Thème_annales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fxp33\PortableApps\UwAmp\www\dcg-ue8\annales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ADF14D-9458-4F49-8E66-AC670F1ABAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88999FCF-C949-4BF4-BF75-E49E96BE0195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13752" yWindow="-4260" windowWidth="10428" windowHeight="17376" xr2:uid="{EEF69C9F-DE26-4B09-9A90-EF330701FCCA}"/>
+    <workbookView xWindow="2700" yWindow="1068" windowWidth="17724" windowHeight="15516" xr2:uid="{EEF69C9F-DE26-4B09-9A90-EF330701FCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>Schéma evt-Rés</t>
   </si>
@@ -248,6 +248,18 @@
   </si>
   <si>
     <t>Dimension organisationnelle</t>
+  </si>
+  <si>
+    <t>eRecycle</t>
+  </si>
+  <si>
+    <t>Xml</t>
+  </si>
+  <si>
+    <t>Réseau</t>
+  </si>
+  <si>
+    <t>Cloud</t>
   </si>
 </sst>
 </file>
@@ -600,11 +612,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1FF34-B865-43C9-BE68-EDA0BEB110CA}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:B108"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -672,36 +682,76 @@
         <v>70</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2021</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2021</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2019</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -709,7 +759,7 @@
         <v>2019</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -717,7 +767,7 @@
         <v>2019</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -725,71 +775,71 @@
         <v>2019</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B24" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -797,7 +847,7 @@
         <v>2017</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -805,7 +855,7 @@
         <v>2017</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -813,7 +863,7 @@
         <v>2017</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -821,7 +871,7 @@
         <v>2017</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -829,95 +879,95 @@
         <v>2017</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B41" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B45" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -925,7 +975,7 @@
         <v>2014</v>
       </c>
       <c r="B46" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -933,39 +983,39 @@
         <v>2014</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -973,7 +1023,7 @@
         <v>2013</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -981,7 +1031,7 @@
         <v>2013</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -989,7 +1039,7 @@
         <v>2013</v>
       </c>
       <c r="B54" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -997,7 +1047,7 @@
         <v>2013</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1005,7 +1055,7 @@
         <v>2013</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1013,7 +1063,7 @@
         <v>2013</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1021,7 +1071,7 @@
         <v>2013</v>
       </c>
       <c r="B58" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1029,39 +1079,39 @@
         <v>2013</v>
       </c>
       <c r="B59" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B63" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1069,7 +1119,7 @@
         <v>2012</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1077,7 +1127,7 @@
         <v>2012</v>
       </c>
       <c r="B65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1085,7 +1135,7 @@
         <v>2012</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1093,7 +1143,7 @@
         <v>2012</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1101,39 +1151,39 @@
         <v>2012</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B70" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1141,7 +1191,7 @@
         <v>2011</v>
       </c>
       <c r="B73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -1149,7 +1199,7 @@
         <v>2011</v>
       </c>
       <c r="B74" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1157,7 +1207,7 @@
         <v>2011</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -1165,7 +1215,7 @@
         <v>2011</v>
       </c>
       <c r="B76" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1173,7 +1223,7 @@
         <v>2011</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,7 +1231,7 @@
         <v>2011</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1189,39 +1239,39 @@
         <v>2011</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1229,7 +1279,7 @@
         <v>2010</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1237,7 +1287,7 @@
         <v>2010</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1245,7 +1295,7 @@
         <v>2010</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1253,7 +1303,7 @@
         <v>2010</v>
       </c>
       <c r="B87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1261,7 +1311,7 @@
         <v>2010</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1269,7 +1319,7 @@
         <v>2010</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1277,7 +1327,7 @@
         <v>2010</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1285,7 +1335,7 @@
         <v>2010</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1293,39 +1343,39 @@
         <v>2010</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B94" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B96" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1333,39 +1383,39 @@
         <v>2009</v>
       </c>
       <c r="B97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B98" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1373,7 +1423,7 @@
         <v>2008</v>
       </c>
       <c r="B102" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1381,7 +1431,7 @@
         <v>2008</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1389,7 +1439,7 @@
         <v>2008</v>
       </c>
       <c r="B104" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1397,7 +1447,7 @@
         <v>2008</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1405,7 +1455,7 @@
         <v>2008</v>
       </c>
       <c r="B106" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1413,7 +1463,7 @@
         <v>2008</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1421,6 +1471,38 @@
         <v>2008</v>
       </c>
       <c r="B108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>2008</v>
+      </c>
+      <c r="B109" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>2008</v>
+      </c>
+      <c r="B110" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>2008</v>
+      </c>
+      <c r="B111" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>2008</v>
+      </c>
+      <c r="B112" t="s">
         <v>62</v>
       </c>
     </row>

--- a/annales/Thème_annales.xlsx
+++ b/annales/Thème_annales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fxp33\PortableApps\UwAmp\www\dcg-ue8\annales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88999FCF-C949-4BF4-BF75-E49E96BE0195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6630CB-3DA0-482C-A420-6F066C16C714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1068" windowWidth="17724" windowHeight="15516" xr2:uid="{EEF69C9F-DE26-4B09-9A90-EF330701FCCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EEF69C9F-DE26-4B09-9A90-EF330701FCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
   <si>
     <t>Schéma evt-Rés</t>
   </si>
@@ -260,6 +260,27 @@
   </si>
   <si>
     <t>Cloud</t>
+  </si>
+  <si>
+    <t>Raulic Spa</t>
+  </si>
+  <si>
+    <t>TCD</t>
+  </si>
+  <si>
+    <t>Processus</t>
+  </si>
+  <si>
+    <t>Intégrité</t>
+  </si>
+  <si>
+    <t>Authenticité</t>
+  </si>
+  <si>
+    <t>VBA</t>
+  </si>
+  <si>
+    <t>serveur Web</t>
   </si>
 </sst>
 </file>
@@ -612,9 +633,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1FF34-B865-43C9-BE68-EDA0BEB110CA}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -628,74 +651,74 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -703,7 +726,7 @@
         <v>2021</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -711,7 +734,7 @@
         <v>2021</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -719,7 +742,7 @@
         <v>2021</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -727,7 +750,7 @@
         <v>2021</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -735,7 +758,7 @@
         <v>2021</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -743,7 +766,7 @@
         <v>2021</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -751,351 +774,359 @@
         <v>2021</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2021</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B21" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B45" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B60" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1103,7 +1134,7 @@
         <v>2013</v>
       </c>
       <c r="B62" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1111,159 +1142,159 @@
         <v>2013</v>
       </c>
       <c r="B63" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B65" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B66" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B67" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B74" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B76" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B77" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B78" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B81" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B82" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1271,87 +1302,87 @@
         <v>2011</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B84" t="s">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B87" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B88" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1359,7 +1390,7 @@
         <v>2010</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1367,7 +1398,7 @@
         <v>2010</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1375,127 +1406,127 @@
         <v>2010</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B97" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B100" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B101" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B102" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B106" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B107" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B108" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B109" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B110" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B111" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1503,6 +1534,86 @@
         <v>2008</v>
       </c>
       <c r="B112" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>2008</v>
+      </c>
+      <c r="B113" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>2008</v>
+      </c>
+      <c r="B114" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>2008</v>
+      </c>
+      <c r="B115" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>2008</v>
+      </c>
+      <c r="B116" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>2008</v>
+      </c>
+      <c r="B117" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2008</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2008</v>
+      </c>
+      <c r="B119" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2008</v>
+      </c>
+      <c r="B120" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2008</v>
+      </c>
+      <c r="B121" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2008</v>
+      </c>
+      <c r="B122" t="s">
         <v>62</v>
       </c>
     </row>

--- a/annales/Thème_annales.xlsx
+++ b/annales/Thème_annales.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fxp33\PortableApps\UwAmp\www\dcg-ue8\annales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6630CB-3DA0-482C-A420-6F066C16C714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{333765C9-C57B-4EBA-A040-7A3F3120D298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{EEF69C9F-DE26-4B09-9A90-EF330701FCCA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{EEF69C9F-DE26-4B09-9A90-EF330701FCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="84">
   <si>
     <t>Schéma evt-Rés</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Proxy</t>
   </si>
   <si>
-    <t>Location véhicules</t>
-  </si>
-  <si>
     <t>EDI</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>Client serveur</t>
   </si>
   <si>
-    <t>livraison pharma</t>
-  </si>
-  <si>
     <t>PGI</t>
   </si>
   <si>
@@ -145,9 +139,6 @@
     <t>ERP</t>
   </si>
   <si>
-    <t>Sport</t>
-  </si>
-  <si>
     <t>intégrité</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
     <t>Serveur messagerie</t>
   </si>
   <si>
-    <t>Immo syndic</t>
-  </si>
-  <si>
     <t>Banque OPCVM</t>
   </si>
   <si>
@@ -281,6 +269,24 @@
   </si>
   <si>
     <t>serveur Web</t>
+  </si>
+  <si>
+    <t>Lodge Azureva</t>
+  </si>
+  <si>
+    <t>LocaEst Location véhicules</t>
+  </si>
+  <si>
+    <t>Hotels Gaya</t>
+  </si>
+  <si>
+    <t>OCD livraison pharma</t>
+  </si>
+  <si>
+    <t>Comité sportif régional Sport</t>
+  </si>
+  <si>
+    <t>Gestion Immo syndic</t>
   </si>
 </sst>
 </file>
@@ -633,20 +639,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD1FF34-B865-43C9-BE68-EDA0BEB110CA}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:B122"/>
+  <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -654,7 +660,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -662,7 +668,7 @@
         <v>2022</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -678,7 +684,7 @@
         <v>2022</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -686,7 +692,7 @@
         <v>2022</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -694,7 +700,7 @@
         <v>2022</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -702,7 +708,7 @@
         <v>2022</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -710,7 +716,7 @@
         <v>2022</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -726,7 +732,7 @@
         <v>2021</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -734,7 +740,7 @@
         <v>2021</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -750,7 +756,7 @@
         <v>2021</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -766,7 +772,7 @@
         <v>2021</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -790,7 +796,7 @@
         <v>2021</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -798,7 +804,7 @@
         <v>2021</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -806,7 +812,7 @@
         <v>2020</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -822,7 +828,7 @@
         <v>2020</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -830,7 +836,7 @@
         <v>2020</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -846,7 +852,7 @@
         <v>2020</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -854,7 +860,7 @@
         <v>2020</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -862,7 +868,7 @@
         <v>2020</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -870,7 +876,7 @@
         <v>2019</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -878,7 +884,7 @@
         <v>2019</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -886,7 +892,7 @@
         <v>2019</v>
       </c>
       <c r="B31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -894,7 +900,7 @@
         <v>2019</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -902,7 +908,7 @@
         <v>2019</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -910,7 +916,7 @@
         <v>2019</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -918,15 +924,15 @@
         <v>2019</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -934,7 +940,7 @@
         <v>2018</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -942,7 +948,7 @@
         <v>2018</v>
       </c>
       <c r="B38" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -950,15 +956,15 @@
         <v>2018</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -966,7 +972,7 @@
         <v>2017</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -974,7 +980,7 @@
         <v>2017</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -982,7 +988,7 @@
         <v>2017</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -990,7 +996,7 @@
         <v>2017</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -998,7 +1004,7 @@
         <v>2017</v>
       </c>
       <c r="B45" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1006,7 +1012,7 @@
         <v>2017</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -1014,7 +1020,7 @@
         <v>2017</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -1022,15 +1028,15 @@
         <v>2017</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1038,7 +1044,7 @@
         <v>2016</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1046,15 +1052,15 @@
         <v>2016</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1062,7 +1068,7 @@
         <v>2015</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1070,7 +1076,7 @@
         <v>2015</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1078,15 +1084,15 @@
         <v>2015</v>
       </c>
       <c r="B55" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1094,7 +1100,7 @@
         <v>2014</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1102,7 +1108,7 @@
         <v>2014</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1110,7 +1116,7 @@
         <v>2014</v>
       </c>
       <c r="B59" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1118,7 +1124,7 @@
         <v>2014</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1126,15 +1132,15 @@
         <v>2014</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1142,7 +1148,7 @@
         <v>2013</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1150,7 +1156,7 @@
         <v>2013</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -1158,7 +1164,7 @@
         <v>2013</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -1166,7 +1172,7 @@
         <v>2013</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -1174,7 +1180,7 @@
         <v>2013</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -1182,7 +1188,7 @@
         <v>2013</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -1190,7 +1196,7 @@
         <v>2013</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -1198,7 +1204,7 @@
         <v>2013</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -1206,7 +1212,7 @@
         <v>2013</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -1214,7 +1220,7 @@
         <v>2013</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -1222,15 +1228,15 @@
         <v>2013</v>
       </c>
       <c r="B73" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -1246,7 +1252,7 @@
         <v>2012</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1254,7 +1260,7 @@
         <v>2012</v>
       </c>
       <c r="B77" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -1262,7 +1268,7 @@
         <v>2012</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -1270,7 +1276,7 @@
         <v>2012</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -1278,7 +1284,7 @@
         <v>2012</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -1286,7 +1292,7 @@
         <v>2012</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -1294,15 +1300,15 @@
         <v>2012</v>
       </c>
       <c r="B82" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -1310,7 +1316,7 @@
         <v>2011</v>
       </c>
       <c r="B84" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1318,7 +1324,7 @@
         <v>2011</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -1326,7 +1332,7 @@
         <v>2011</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -1334,7 +1340,7 @@
         <v>2011</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -1342,7 +1348,7 @@
         <v>2011</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -1350,7 +1356,7 @@
         <v>2011</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -1358,7 +1364,7 @@
         <v>2011</v>
       </c>
       <c r="B90" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1366,7 +1372,7 @@
         <v>2011</v>
       </c>
       <c r="B91" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1374,7 +1380,7 @@
         <v>2011</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1382,15 +1388,15 @@
         <v>2011</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1398,7 +1404,7 @@
         <v>2010</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1406,7 +1412,7 @@
         <v>2010</v>
       </c>
       <c r="B96" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1414,7 +1420,7 @@
         <v>2010</v>
       </c>
       <c r="B97" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1422,7 +1428,7 @@
         <v>2010</v>
       </c>
       <c r="B98" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1430,7 +1436,7 @@
         <v>2010</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1438,7 +1444,7 @@
         <v>2010</v>
       </c>
       <c r="B100" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1446,7 +1452,7 @@
         <v>2010</v>
       </c>
       <c r="B101" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1454,7 +1460,7 @@
         <v>2010</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1462,7 +1468,7 @@
         <v>2010</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1470,7 +1476,7 @@
         <v>2010</v>
       </c>
       <c r="B104" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1478,7 +1484,7 @@
         <v>2010</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1486,15 +1492,15 @@
         <v>2010</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B107" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1502,7 +1508,7 @@
         <v>2009</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1510,7 +1516,7 @@
         <v>2009</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1518,7 +1524,7 @@
         <v>2009</v>
       </c>
       <c r="B110" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1526,15 +1532,15 @@
         <v>2009</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B112" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1542,7 +1548,7 @@
         <v>2008</v>
       </c>
       <c r="B113" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1550,7 +1556,7 @@
         <v>2008</v>
       </c>
       <c r="B114" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1558,7 +1564,7 @@
         <v>2008</v>
       </c>
       <c r="B115" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1566,7 +1572,7 @@
         <v>2008</v>
       </c>
       <c r="B116" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1574,7 +1580,7 @@
         <v>2008</v>
       </c>
       <c r="B117" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1582,7 +1588,7 @@
         <v>2008</v>
       </c>
       <c r="B118" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1590,7 +1596,7 @@
         <v>2008</v>
       </c>
       <c r="B119" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1598,7 +1604,7 @@
         <v>2008</v>
       </c>
       <c r="B120" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1606,7 +1612,7 @@
         <v>2008</v>
       </c>
       <c r="B121" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -1614,7 +1620,15 @@
         <v>2008</v>
       </c>
       <c r="B122" t="s">
-        <v>62</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2008</v>
+      </c>
+      <c r="B123" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
